--- a/data/trans_camb/P24_8_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_8_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,32</t>
+          <t>-2,75; 5,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 0,18</t>
+          <t>-3,64; 3,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 1,13</t>
+          <t>-3,43; 4,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,18</t>
+          <t>-2,83; 5,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,64</t>
+          <t>-5,28; 6,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,59</t>
+          <t>-4,21; 7,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,56</t>
+          <t>1,12; 14,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,48</t>
+          <t>-1,3; 12,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,26</t>
+          <t>-2,51; 5,14</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 4,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 7,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 7,09</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-24,94%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-54,79%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,71%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,75%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,09%</t>
+          <t>79,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,59%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>61,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43,57%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,72; 68,36</t>
+          <t>-68,77; 634,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,92; 22,37</t>
+          <t>-84,39; 410,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 42,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 39,37</t>
+          <t>-80,54; 538,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 30,79</t>
+          <t>-43,48; 104,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 91,6</t>
+          <t>-34,51; 112,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 25,08</t>
+          <t>2,64; 209,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 8,31</t>
+          <t>-15,08; 184,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 48,03</t>
+          <t>-32,3; 109,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,12; 105,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 173,17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-21,35; 154,67</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,25</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 1,21</t>
+          <t>-4,64; 7,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,53</t>
+          <t>-6,3; 4,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,47</t>
+          <t>-2,9; 12,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 4,78</t>
+          <t>-3,93; 7,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 5,5</t>
+          <t>-12,14; 4,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 1,45</t>
+          <t>-14,65; 0,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 1,62</t>
+          <t>-15,71; -0,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,18</t>
+          <t>-14,11; 2,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 1,3</t>
+          <t>-7,34; 3,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; -0,01</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 2,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 2,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-38,49%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,36%</t>
+          <t>-16,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>61,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>-21,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,98%</t>
+          <t>-40,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,85%</t>
+          <t>-47,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>-29,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>-13,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-36,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-16,89%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,06; 27,85</t>
+          <t>-66,53; 318,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,01; 51,18</t>
+          <t>-77,04; 197,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 115,88</t>
+          <t>-42,27; 623,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 47,48</t>
+          <t>-57,75; 299,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 53,12</t>
+          <t>-56,35; 37,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 16,49</t>
+          <t>-68,77; 6,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 20,97</t>
+          <t>-73,79; -0,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 25,11</t>
+          <t>-63,22; 20,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 15,42</t>
+          <t>-49,28; 34,9</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-65,28; 3,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-55,77; 33,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-50,31; 31,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,33</t>
+          <t>-22,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,93</t>
+          <t>-22,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,48</t>
+          <t>-25,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-18,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-15,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-11,71</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-15,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-11,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -0,16</t>
+          <t>-62,52; 3,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 1,82</t>
+          <t>-63,77; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,35; -3,72</t>
+          <t>-63,97; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 8,43</t>
+          <t>-58,74; 7,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 16,69</t>
+          <t>-25,06; 7,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 12,87</t>
+          <t>-18,83; 19,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,79; -0,45</t>
+          <t>-22,73; 12,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 3,61</t>
+          <t>-23,08; 14,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-27,17; -0,67</t>
+          <t>-44,8; -1,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-41,05; 2,82</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-44,76; -1,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-41,08; 2,99</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1344,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-80,88%</t>
+          <t>-86,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-72,38%</t>
+          <t>-87,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,32 +1359,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,6%</t>
+          <t>-72,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-57,18%</t>
+          <t>-20,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-30,06%</t>
+          <t>-19,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-58,98%</t>
+          <t>-66,31%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-50,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-65,51%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-49,75%</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1417,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 80,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,39; 123,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 283,06</t>
+          <t>-85,95; 85,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 206,35</t>
+          <t>-65,03; 187,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-90,72; 5,91</t>
+          <t>-78,97; 146,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,05; 40,84</t>
+          <t>-76,74; 143,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,14; -5,96</t>
+          <t>-96,09; -11,83</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-91,4; 26,35</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-94,41; -5,3</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-92,59; 38,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>-2,45</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -0,28</t>
+          <t>-10,31; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -0,48</t>
+          <t>-11,2; 1,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,06</t>
+          <t>-9,74; 3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,13</t>
+          <t>-9,29; 2,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,78</t>
+          <t>-6,44; 3,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 3,33</t>
+          <t>-6,68; 2,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,08</t>
+          <t>-4,9; 4,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,24</t>
+          <t>-4,88; 5,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,59</t>
+          <t>-5,67; 1,55</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 0,56</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 2,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 2,98</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-44,41%</t>
+          <t>-25,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-49,12%</t>
+          <t>-43,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-41,28%</t>
+          <t>-19,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-14,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>-16,14%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,83%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,7; -0,81</t>
+          <t>-78,3; 75,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -6,56</t>
+          <t>-85,03; 39,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 3,33</t>
+          <t>-74,2; 95,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 22,66</t>
+          <t>-77,13; 84,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 28,0</t>
+          <t>-39,11; 31,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 31,98</t>
+          <t>-41,71; 28,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 1,46</t>
+          <t>-30,48; 45,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 3,04</t>
+          <t>-30,49; 46,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 6,01</t>
+          <t>-43,93; 19,8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 8,35</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-39,11; 32,32</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-35,95; 36,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
